--- a/Framework/target/classes/com/aspiresys/resources/Github.xlsx
+++ b/Framework/target/classes/com/aspiresys/resources/Github.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/target/classes/com/aspiresys/resources/Github.xlsx
+++ b/Framework/target/classes/com/aspiresys/resources/Github.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/target/classes/com/aspiresys/resources/Github.xlsx
+++ b/Framework/target/classes/com/aspiresys/resources/Github.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>Test Case</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>dummy02</t>
+  </si>
+  <si>
+    <t>Trigger</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>dummy03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>dummy04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>dummy05</t>
   </si>
 </sst>
 </file>
@@ -466,189 +493,455 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4"/>
+      <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4"/>
+      <c r="D13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Framework/target/classes/com/aspiresys/resources/Github.xlsx
+++ b/Framework/target/classes/com/aspiresys/resources/Github.xlsx
@@ -90,9 +90,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TC03</t>
   </si>
   <si>
@@ -109,13 +106,16 @@
   </si>
   <si>
     <t>dummy05</t>
+  </si>
+  <si>
+    <t>https://github.com/login04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +135,14 @@
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -175,10 +183,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -192,8 +201,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -496,7 +507,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +631,7 @@
         <v>17</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>4</v>
@@ -650,8 +661,8 @@
         <v>9</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>10</v>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -696,7 +707,7 @@
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>17</v>
@@ -747,7 +758,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -778,13 +789,13 @@
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
@@ -814,8 +825,8 @@
         <v>9</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>10</v>
+      <c r="F22" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -829,7 +840,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,7 +871,7 @@
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
@@ -896,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -911,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,8 +957,13 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F28" r:id="rId1"/>
+    <hyperlink ref="F22" r:id="rId2"/>
+    <hyperlink ref="F10" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
